--- a/biology/Botanique/Giardini_Savorgnan/Giardini_Savorgnan.xlsx
+++ b/biology/Botanique/Giardini_Savorgnan/Giardini_Savorgnan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les  Giardini Savorgnan (en français, les jardins Savorgnan) est un jardin public de Venise d'une superficie de 9 500 m2 environ, situé dans le sestiere Cannaregio.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins Savorgnan se trouvent à  S. Geremia, dans le quartier de Cannaregio et fait partie intégrante, bien que maintenant la propriété
 Ville de Venise, du palais Savorgnan pour lequel ils ont été conçus. Le palais a été construit sur les plans de l’architecte  Giuseppe Sardi (1624-1699).  Le jardin initial a été élargi en 1752 et décoré de statues, de vases, d'agrumes.
